--- a/Final project- evaluation.xlsx
+++ b/Final project- evaluation.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edgartome_1/IronHack/IronProjects/Final_project/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DECB412-D147-5949-874E-C668683BA4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -103,37 +112,39 @@
     <t xml:space="preserve">The project is specialized on </t>
   </si>
   <si>
-    <t>Unsupervised ML</t>
-  </si>
-  <si>
     <t>Please provide the brief review about the project and presenters</t>
   </si>
   <si>
     <t>Final Score</t>
+  </si>
+  <si>
+    <t>Time Series</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="15.0"/>
+      <sz val="15"/>
       <color rgb="FF292929"/>
       <name val="Georgia"/>
     </font>
@@ -143,7 +154,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -159,7 +170,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -173,56 +190,48 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -412,32 +421,37 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="84.13"/>
-    <col customWidth="1" min="2" max="2" width="26.63"/>
+    <col min="1" max="1" width="84.1640625" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -445,22 +459,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -468,7 +482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -476,7 +490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -484,14 +498,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -499,7 +513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -507,7 +521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -515,7 +529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -523,7 +537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -531,7 +545,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -539,7 +553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -548,7 +562,7 @@
       </c>
       <c r="D15" s="5"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -557,14 +571,14 @@
       </c>
       <c r="D16" s="5"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -572,7 +586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -580,14 +594,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -596,16 +610,16 @@
       </c>
       <c r="D21" s="5"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" s="5"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
@@ -613,7 +627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
@@ -622,14 +636,14 @@
       </c>
       <c r="D24" s="5"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
         <v>27</v>
       </c>
@@ -637,22 +651,22 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="3" t="s">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -661,20 +675,19 @@
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="B27">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" sqref="B27" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Supervised ML,Unsupervised ML,ETL,NLP,Time Series,BI"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B2:B3 B5:B7 B9:B12 B14:B16 B18:B19 B21:B24">
+    <dataValidation type="list" allowBlank="1" sqref="B2:B3 B5:B7 B9:B12 B14:B16 B18:B19 B21:B24" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Yes,50/50,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B26">
+    <dataValidation type="list" allowBlank="1" sqref="B26" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Positive,Neutral,Negative"</formula1>
     </dataValidation>
   </dataValidations>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId1"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
 </worksheet>
 </file>